--- a/result/gold_analysis.xlsx
+++ b/result/gold_analysis.xlsx
@@ -8,16 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pratyusatripathy/my_work/fund_analysis/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921B7905-BE49-D445-8CA1-9075B8317CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8EE6EA4-7732-0440-A01E-EC392CA03A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="24000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="Regime_Analysis" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -212,7 +225,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -286,7 +299,7 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -597,7 +610,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -779,7 +792,7 @@
       <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="6">
         <v>-0.1536897073145545</v>
       </c>
     </row>
@@ -790,7 +803,7 @@
       <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="6">
         <v>-0.1536897073145545</v>
       </c>
     </row>
